--- a/Techsuggestion.xlsx
+++ b/Techsuggestion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shasv\Downloads\JPMC\Details\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3BBE0A-1222-400F-9366-C462B10D63F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C87F83-D8FB-4BBE-BD9A-ED20F929F1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D52B0124-E3BD-4DD4-BDE7-F8495159FF2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D52B0124-E3BD-4DD4-BDE7-F8495159FF2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Team Name</t>
   </si>
@@ -159,13 +160,85 @@
   </si>
   <si>
     <t>Implement a data access review process to ensure timely review and updates of user permissions.</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Amazon EKS with EC2 Instances (On-Demand &amp; Spot)</t>
+  </si>
+  <si>
+    <t>Amazon ECS with Fargate Spot</t>
+  </si>
+  <si>
+    <t>Cluster Cost</t>
+  </si>
+  <si>
+    <t>EKS Cluster</t>
+  </si>
+  <si>
+    <t>$0.10/hour</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Control Plane Cost</t>
+  </si>
+  <si>
+    <t>EKS Control Plane</t>
+  </si>
+  <si>
+    <t>Compute Cost</t>
+  </si>
+  <si>
+    <t>EC2 Instances for EKS</t>
+  </si>
+  <si>
+    <t>$3.0336/hour (1 On-Demand + 2 Spot)</t>
+  </si>
+  <si>
+    <t>Fargate Tasks for REST API</t>
+  </si>
+  <si>
+    <t>$0.91584/hour</t>
+  </si>
+  <si>
+    <t>Fargate Task for PostgreSQL</t>
+  </si>
+  <si>
+    <t>$0.30432/hour</t>
+  </si>
+  <si>
+    <t>Transfer Cost</t>
+  </si>
+  <si>
+    <t>Data Transfer for VPC Messages (EKS)</t>
+  </si>
+  <si>
+    <t>$7.50/day (750 MB x $0.01/GB)</t>
+  </si>
+  <si>
+    <t>Total Cost per Day</t>
+  </si>
+  <si>
+    <t>Total EKS Cost</t>
+  </si>
+  <si>
+    <t>$11.89872/day (Cluster + Control Plane + EC2 Instances + Transfer)</t>
+  </si>
+  <si>
+    <t>Total ECS Cost</t>
+  </si>
+  <si>
+    <t>$1.28716/day (Fargate Tasks + Transfer)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +267,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,17 +320,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B93536-3097-4CD0-B390-4B0CF4F1D268}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -751,4 +870,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193B6766-EFF9-4078-B1AD-DC94D8F0A1E8}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>